--- a/datas/MSCIeurope.xlsx
+++ b/datas/MSCIeurope.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7A2E5-D418-441E-8F35-215E55EE8E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4336,8 +4342,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4400,6 +4406,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4446,7 +4460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4478,9 +4492,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4512,6 +4544,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4687,14 +4737,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M290" sqref="M290"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4741,7 +4796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4767,7 +4822,7 @@
         <v>4.67</v>
       </c>
       <c r="I2">
-        <v>48274991.14</v>
+        <v>48274991.140000001</v>
       </c>
       <c r="J2">
         <v>420838</v>
@@ -4779,19 +4834,19 @@
         <v>1434</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4817,7 +4872,7 @@
         <v>3.38</v>
       </c>
       <c r="I3">
-        <v>34906428.2</v>
+        <v>34906428.200000003</v>
       </c>
       <c r="J3">
         <v>60802</v>
@@ -4829,19 +4884,19 @@
         <v>1435</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4891,7 +4946,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4917,7 +4972,7 @@
         <v>2.81</v>
       </c>
       <c r="I5">
-        <v>29028191.4</v>
+        <v>29028191.399999999</v>
       </c>
       <c r="J5">
         <v>41457</v>
@@ -4941,7 +4996,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4967,7 +5022,7 @@
         <v>2.73</v>
       </c>
       <c r="I6">
-        <v>28242417.87</v>
+        <v>28242417.870000001</v>
       </c>
       <c r="J6">
         <v>247375</v>
@@ -4979,19 +5034,19 @@
         <v>1436</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5017,7 +5072,7 @@
         <v>2.64</v>
       </c>
       <c r="I7">
-        <v>27266964.44</v>
+        <v>27266964.440000001</v>
       </c>
       <c r="J7">
         <v>323499</v>
@@ -5029,19 +5084,19 @@
         <v>1434</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5067,7 +5122,7 @@
         <v>2.1</v>
       </c>
       <c r="I8">
-        <v>21695908.44</v>
+        <v>21695908.440000001</v>
       </c>
       <c r="J8">
         <v>371251</v>
@@ -5079,19 +5134,19 @@
         <v>1435</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5129,19 +5184,19 @@
         <v>1435</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5167,7 +5222,7 @@
         <v>1.46</v>
       </c>
       <c r="I10">
-        <v>15112154.04</v>
+        <v>15112154.039999999</v>
       </c>
       <c r="J10">
         <v>114434</v>
@@ -5191,7 +5246,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5229,19 +5284,19 @@
         <v>1435</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5279,7 +5334,7 @@
         <v>1435</v>
       </c>
       <c r="M12">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="N12">
         <v>5.56</v>
@@ -5291,7 +5346,7 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5341,7 +5396,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5364,10 +5419,10 @@
         <v>868</v>
       </c>
       <c r="H14">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I14">
-        <v>11588975.28</v>
+        <v>11588975.279999999</v>
       </c>
       <c r="J14">
         <v>81429</v>
@@ -5388,10 +5443,10 @@
         <v>6.23</v>
       </c>
       <c r="P14">
-        <v>17.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>17.309999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5429,19 +5484,19 @@
         <v>1435</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5467,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>10299832.62</v>
+        <v>10299832.619999999</v>
       </c>
       <c r="J16">
         <v>22502</v>
@@ -5479,7 +5534,7 @@
         <v>1434</v>
       </c>
       <c r="M16">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="N16">
         <v>7.9</v>
@@ -5491,7 +5546,7 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5535,13 +5590,13 @@
         <v>13.86</v>
       </c>
       <c r="O17">
-        <v>9.029999999999999</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="P17">
         <v>27.36</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5567,7 +5622,7 @@
         <v>0.93</v>
       </c>
       <c r="I18">
-        <v>9647220.199999999</v>
+        <v>9647220.1999999993</v>
       </c>
       <c r="J18">
         <v>891610</v>
@@ -5591,7 +5646,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5617,7 +5672,7 @@
         <v>0.93</v>
       </c>
       <c r="I19">
-        <v>9597499.9</v>
+        <v>9597499.9000000004</v>
       </c>
       <c r="J19">
         <v>485556</v>
@@ -5641,7 +5696,7 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5667,7 +5722,7 @@
         <v>0.9</v>
       </c>
       <c r="I20">
-        <v>9305159.300000001</v>
+        <v>9305159.3000000007</v>
       </c>
       <c r="J20">
         <v>524389</v>
@@ -5691,7 +5746,7 @@
         <v>22.66</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5717,7 +5772,7 @@
         <v>0.88</v>
       </c>
       <c r="I21">
-        <v>9091311.619999999</v>
+        <v>9091311.6199999992</v>
       </c>
       <c r="J21">
         <v>78011</v>
@@ -5741,7 +5796,7 @@
         <v>10.97</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5767,7 +5822,7 @@
         <v>0.86</v>
       </c>
       <c r="I22">
-        <v>8870698.880000001</v>
+        <v>8870698.8800000008</v>
       </c>
       <c r="J22">
         <v>166336</v>
@@ -5791,7 +5846,7 @@
         <v>25.05</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5817,7 +5872,7 @@
         <v>0.79</v>
       </c>
       <c r="I23">
-        <v>8143775.15</v>
+        <v>8143775.1500000004</v>
       </c>
       <c r="J23">
         <v>146867</v>
@@ -5841,7 +5896,7 @@
         <v>23.14</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5891,7 +5946,7 @@
         <v>27.27</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5917,7 +5972,7 @@
         <v>0.74</v>
       </c>
       <c r="I25">
-        <v>7643671.92</v>
+        <v>7643671.9199999999</v>
       </c>
       <c r="J25">
         <v>280296</v>
@@ -5932,7 +5987,7 @@
         <v>1.39</v>
       </c>
       <c r="N25">
-        <v>8.279999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="O25">
         <v>7.31</v>
@@ -5941,7 +5996,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5991,7 +6046,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6029,19 +6084,19 @@
         <v>1435</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6067,7 +6122,7 @@
         <v>0.72</v>
       </c>
       <c r="I28">
-        <v>7428317.27</v>
+        <v>7428317.2699999996</v>
       </c>
       <c r="J28">
         <v>244650</v>
@@ -6079,19 +6134,19 @@
         <v>1434</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="P28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6117,7 +6172,7 @@
         <v>0.7</v>
       </c>
       <c r="I29">
-        <v>7259325.15</v>
+        <v>7259325.1500000004</v>
       </c>
       <c r="J29">
         <v>124795</v>
@@ -6141,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6167,7 +6222,7 @@
         <v>0.7</v>
       </c>
       <c r="I30">
-        <v>7258151.92</v>
+        <v>7258151.9199999999</v>
       </c>
       <c r="J30">
         <v>2561550</v>
@@ -6179,19 +6234,19 @@
         <v>1435</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6217,7 +6272,7 @@
         <v>0.68</v>
       </c>
       <c r="I31">
-        <v>7063267.95</v>
+        <v>7063267.9500000002</v>
       </c>
       <c r="J31">
         <v>129435</v>
@@ -6229,19 +6284,19 @@
         <v>1435</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="P31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6291,7 +6346,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6317,7 +6372,7 @@
         <v>0.66</v>
       </c>
       <c r="I33">
-        <v>6826243.26</v>
+        <v>6826243.2599999998</v>
       </c>
       <c r="J33">
         <v>137612</v>
@@ -6335,13 +6390,13 @@
         <v>6.9</v>
       </c>
       <c r="O33">
-        <v>8.380000000000001</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="P33">
         <v>28.11</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6367,7 +6422,7 @@
         <v>0.66</v>
       </c>
       <c r="I34">
-        <v>6816154.26</v>
+        <v>6816154.2599999998</v>
       </c>
       <c r="J34">
         <v>585983</v>
@@ -6379,19 +6434,19 @@
         <v>1435</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6417,7 +6472,7 @@
         <v>0.6</v>
       </c>
       <c r="I35">
-        <v>6236194.24</v>
+        <v>6236194.2400000002</v>
       </c>
       <c r="J35">
         <v>1209737</v>
@@ -6429,19 +6484,19 @@
         <v>1435</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6482,7 +6537,7 @@
         <v>0.41</v>
       </c>
       <c r="N36">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="O36">
         <v>7.59</v>
@@ -6491,7 +6546,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6541,7 +6596,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6567,7 +6622,7 @@
         <v>0.59</v>
       </c>
       <c r="I38">
-        <v>6130807.9</v>
+        <v>6130807.9000000004</v>
       </c>
       <c r="J38">
         <v>11243</v>
@@ -6582,7 +6637,7 @@
         <v>0.86</v>
       </c>
       <c r="N38">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="O38">
         <v>5</v>
@@ -6591,7 +6646,7 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6614,10 +6669,10 @@
         <v>893</v>
       </c>
       <c r="H39">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I39">
-        <v>5978337.22</v>
+        <v>5978337.2199999997</v>
       </c>
       <c r="J39">
         <v>51001</v>
@@ -6632,7 +6687,7 @@
         <v>6.94</v>
       </c>
       <c r="N39">
-        <v>10.22</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="O39">
         <v>5.79</v>
@@ -6641,7 +6696,7 @@
         <v>22.96</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6664,10 +6719,10 @@
         <v>894</v>
       </c>
       <c r="H40">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I40">
-        <v>5879687.1</v>
+        <v>5879687.0999999996</v>
       </c>
       <c r="J40">
         <v>31459</v>
@@ -6691,7 +6746,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6714,10 +6769,10 @@
         <v>895</v>
       </c>
       <c r="H41">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I41">
-        <v>5705879.78</v>
+        <v>5705879.7800000003</v>
       </c>
       <c r="J41">
         <v>11170</v>
@@ -6732,16 +6787,16 @@
         <v>1.33</v>
       </c>
       <c r="N41">
-        <v>9.619999999999999</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="O41">
         <v>5.55</v>
       </c>
       <c r="P41">
-        <v>16.51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>16.510000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6767,7 +6822,7 @@
         <v>0.54</v>
       </c>
       <c r="I42">
-        <v>5621267.78</v>
+        <v>5621267.7800000003</v>
       </c>
       <c r="J42">
         <v>996502</v>
@@ -6779,19 +6834,19 @@
         <v>1435</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>10.3</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6817,7 +6872,7 @@
         <v>0.53</v>
       </c>
       <c r="I43">
-        <v>5434897.33</v>
+        <v>5434897.3300000001</v>
       </c>
       <c r="J43">
         <v>21888</v>
@@ -6841,7 +6896,7 @@
         <v>22.63</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6879,19 +6934,19 @@
         <v>1435</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="P44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6941,7 +6996,7 @@
         <v>16.03</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6979,19 +7034,19 @@
         <v>359</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="P46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7041,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7067,7 +7122,7 @@
         <v>0.48</v>
       </c>
       <c r="I48">
-        <v>4929968.65</v>
+        <v>4929968.6500000004</v>
       </c>
       <c r="J48">
         <v>273901</v>
@@ -7091,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -7141,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -7191,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>53</v>
       </c>
@@ -7217,7 +7272,7 @@
         <v>0.47</v>
       </c>
       <c r="I51">
-        <v>4830079.94</v>
+        <v>4830079.9400000004</v>
       </c>
       <c r="J51">
         <v>95702</v>
@@ -7241,7 +7296,7 @@
         <v>19.87</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>54</v>
       </c>
@@ -7279,10 +7334,10 @@
         <v>1434</v>
       </c>
       <c r="M52">
-        <v>9.029999999999999</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="N52">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O52">
         <v>6.61</v>
@@ -7291,7 +7346,7 @@
         <v>20.04</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -7341,7 +7396,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>56</v>
       </c>
@@ -7382,16 +7437,16 @@
         <v>6.82</v>
       </c>
       <c r="N54">
-        <v>9.630000000000001</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O54">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="P54">
         <v>20.8</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>57</v>
       </c>
@@ -7429,19 +7484,19 @@
         <v>1435</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="P55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>58</v>
       </c>
@@ -7479,19 +7534,19 @@
         <v>1436</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>59</v>
       </c>
@@ -7517,7 +7572,7 @@
         <v>0.41</v>
       </c>
       <c r="I57">
-        <v>4212524.98</v>
+        <v>4212524.9800000004</v>
       </c>
       <c r="J57">
         <v>9882</v>
@@ -7529,19 +7584,19 @@
         <v>1436</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="P57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>60</v>
       </c>
@@ -7591,7 +7646,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>62</v>
       </c>
@@ -7629,7 +7684,7 @@
         <v>1435</v>
       </c>
       <c r="M59">
-        <v>4.02</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="N59">
         <v>9.77</v>
@@ -7641,7 +7696,7 @@
         <v>17.96</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>63</v>
       </c>
@@ -7679,19 +7734,19 @@
         <v>1437</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>64</v>
       </c>
@@ -7717,7 +7772,7 @@
         <v>0.4</v>
       </c>
       <c r="I61">
-        <v>4085452.8</v>
+        <v>4085452.7999999998</v>
       </c>
       <c r="J61">
         <v>163680</v>
@@ -7729,7 +7784,7 @@
         <v>1435</v>
       </c>
       <c r="M61">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N61">
         <v>6.15</v>
@@ -7741,7 +7796,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>65</v>
       </c>
@@ -7791,7 +7846,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>66</v>
       </c>
@@ -7841,7 +7896,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>67</v>
       </c>
@@ -7891,7 +7946,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>68</v>
       </c>
@@ -7941,7 +7996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>69</v>
       </c>
@@ -7979,19 +8034,19 @@
         <v>1435</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>70</v>
       </c>
@@ -8041,7 +8096,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>71</v>
       </c>
@@ -8079,19 +8134,19 @@
         <v>1434</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>72</v>
       </c>
@@ -8129,19 +8184,19 @@
         <v>1435</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -8191,7 +8246,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -8238,10 +8293,10 @@
         <v>6.55</v>
       </c>
       <c r="P71">
-        <v>19.24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -8279,10 +8334,10 @@
         <v>1435</v>
       </c>
       <c r="M72">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="N72">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="O72">
         <v>8.77</v>
@@ -8291,7 +8346,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -8329,19 +8384,19 @@
         <v>1435</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="P73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>79</v>
       </c>
@@ -8391,7 +8446,7 @@
         <v>21.84</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>80</v>
       </c>
@@ -8441,7 +8496,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>81</v>
       </c>
@@ -8488,10 +8543,10 @@
         <v>5.68</v>
       </c>
       <c r="P76">
-        <v>17.06</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>83</v>
       </c>
@@ -8529,19 +8584,19 @@
         <v>1434</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="P77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>84</v>
       </c>
@@ -8579,19 +8634,19 @@
         <v>1435</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="P78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>86</v>
       </c>
@@ -8629,19 +8684,19 @@
         <v>1435</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="P79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>87</v>
       </c>
@@ -8679,7 +8734,7 @@
         <v>1435</v>
       </c>
       <c r="M80">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="N80">
         <v>6.5</v>
@@ -8691,7 +8746,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>88</v>
       </c>
@@ -8741,7 +8796,7 @@
         <v>26.42</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>89</v>
       </c>
@@ -8791,7 +8846,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>90</v>
       </c>
@@ -8814,7 +8869,7 @@
         <v>937</v>
       </c>
       <c r="H83">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I83">
         <v>3042252.49</v>
@@ -8841,7 +8896,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>92</v>
       </c>
@@ -8864,7 +8919,7 @@
         <v>938</v>
       </c>
       <c r="H84">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I84">
         <v>2973637.8</v>
@@ -8879,19 +8934,19 @@
         <v>1435</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="P84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>93</v>
       </c>
@@ -8914,7 +8969,7 @@
         <v>939</v>
       </c>
       <c r="H85">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I85">
         <v>2868534.95</v>
@@ -8941,7 +8996,7 @@
         <v>20.11</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>94</v>
       </c>
@@ -8964,7 +9019,7 @@
         <v>940</v>
       </c>
       <c r="H86">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I86">
         <v>2859775.68</v>
@@ -8991,7 +9046,7 @@
         <v>23.21</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>95</v>
       </c>
@@ -9032,7 +9087,7 @@
         <v>1.57</v>
       </c>
       <c r="N87">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="O87">
         <v>6.59</v>
@@ -9041,7 +9096,7 @@
         <v>17.36</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>96</v>
       </c>
@@ -9079,7 +9134,7 @@
         <v>1435</v>
       </c>
       <c r="M88">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="N88">
         <v>7.08</v>
@@ -9091,7 +9146,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>97</v>
       </c>
@@ -9141,7 +9196,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>99</v>
       </c>
@@ -9191,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>102</v>
       </c>
@@ -9229,19 +9284,19 @@
         <v>1437</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="P91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>103</v>
       </c>
@@ -9291,7 +9346,7 @@
         <v>28.36</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>104</v>
       </c>
@@ -9341,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>105</v>
       </c>
@@ -9391,7 +9446,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>106</v>
       </c>
@@ -9432,7 +9487,7 @@
         <v>5.55</v>
       </c>
       <c r="N95">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="O95">
         <v>5.36</v>
@@ -9441,7 +9496,7 @@
         <v>13.09</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>109</v>
       </c>
@@ -9491,7 +9546,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>113</v>
       </c>
@@ -9541,7 +9596,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>114</v>
       </c>
@@ -9567,7 +9622,7 @@
         <v>0.23</v>
       </c>
       <c r="I98">
-        <v>2370537.55</v>
+        <v>2370537.5499999998</v>
       </c>
       <c r="J98">
         <v>662902</v>
@@ -9591,7 +9646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>115</v>
       </c>
@@ -9629,19 +9684,19 @@
         <v>1435</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="P99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>116</v>
       </c>
@@ -9682,7 +9737,7 @@
         <v>10.4</v>
       </c>
       <c r="N100">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="O100">
         <v>4.45</v>
@@ -9691,7 +9746,7 @@
         <v>24.31</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>117</v>
       </c>
@@ -9738,10 +9793,10 @@
         <v>7.73</v>
       </c>
       <c r="P101">
-        <v>20.33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
+        <v>20.329999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>119</v>
       </c>
@@ -9767,7 +9822,7 @@
         <v>0.21</v>
       </c>
       <c r="I102">
-        <v>2171292.22</v>
+        <v>2171292.2200000002</v>
       </c>
       <c r="J102">
         <v>957</v>
@@ -9791,7 +9846,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>120</v>
       </c>
@@ -9841,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>122</v>
       </c>
@@ -9891,7 +9946,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>124</v>
       </c>
@@ -9917,7 +9972,7 @@
         <v>0.2</v>
       </c>
       <c r="I105">
-        <v>2097909.47</v>
+        <v>2097909.4700000002</v>
       </c>
       <c r="J105">
         <v>135738</v>
@@ -9941,7 +9996,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>125</v>
       </c>
@@ -9991,7 +10046,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>126</v>
       </c>
@@ -10041,7 +10096,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>127</v>
       </c>
@@ -10079,10 +10134,10 @@
         <v>1434</v>
       </c>
       <c r="M108">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="N108">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="O108">
         <v>6.18</v>
@@ -10091,7 +10146,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>128</v>
       </c>
@@ -10129,19 +10184,19 @@
         <v>1435</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="P109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>129</v>
       </c>
@@ -10191,7 +10246,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>130</v>
       </c>
@@ -10241,7 +10296,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>131</v>
       </c>
@@ -10291,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>132</v>
       </c>
@@ -10341,7 +10396,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>133</v>
       </c>
@@ -10391,7 +10446,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>134</v>
       </c>
@@ -10432,7 +10487,7 @@
         <v>4.07</v>
       </c>
       <c r="N115">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="O115">
         <v>5.28</v>
@@ -10441,7 +10496,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>136</v>
       </c>
@@ -10491,7 +10546,7 @@
         <v>16.73</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>138</v>
       </c>
@@ -10541,7 +10596,7 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>139</v>
       </c>
@@ -10579,19 +10634,19 @@
         <v>1435</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="N118">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="O118">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>141</v>
       </c>
@@ -10632,7 +10687,7 @@
         <v>1.78</v>
       </c>
       <c r="N119">
-        <v>8.460000000000001</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="O119">
         <v>10.59</v>
@@ -10641,7 +10696,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>143</v>
       </c>
@@ -10691,7 +10746,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>144</v>
       </c>
@@ -10741,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>145</v>
       </c>
@@ -10791,7 +10846,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>146</v>
       </c>
@@ -10841,7 +10896,7 @@
         <v>22.56</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>147</v>
       </c>
@@ -10879,19 +10934,19 @@
         <v>1435</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="P124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>148</v>
       </c>
@@ -10929,19 +10984,19 @@
         <v>1435</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O125">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>149</v>
       </c>
@@ -10991,7 +11046,7 @@
         <v>15.05</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>150</v>
       </c>
@@ -11041,7 +11096,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>151</v>
       </c>
@@ -11091,7 +11146,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>152</v>
       </c>
@@ -11141,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>154</v>
       </c>
@@ -11179,19 +11234,19 @@
         <v>1435</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="P130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>155</v>
       </c>
@@ -11241,7 +11296,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>156</v>
       </c>
@@ -11279,19 +11334,19 @@
         <v>1435</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="P132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>157</v>
       </c>
@@ -11341,7 +11396,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>158</v>
       </c>
@@ -11391,7 +11446,7 @@
         <v>8.44</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>159</v>
       </c>
@@ -11429,19 +11484,19 @@
         <v>1436</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>160</v>
       </c>
@@ -11479,7 +11534,7 @@
         <v>1435</v>
       </c>
       <c r="M136">
-        <v>8.710000000000001</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="N136">
         <v>12.38</v>
@@ -11491,7 +11546,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>161</v>
       </c>
@@ -11532,7 +11587,7 @@
         <v>7.88</v>
       </c>
       <c r="N137">
-        <v>9.720000000000001</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="O137">
         <v>4.95</v>
@@ -11541,7 +11596,7 @@
         <v>22.56</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>162</v>
       </c>
@@ -11579,19 +11634,19 @@
         <v>359</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="N138">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="O138">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="P138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>163</v>
       </c>
@@ -11632,16 +11687,16 @@
         <v>3.58</v>
       </c>
       <c r="N139">
-        <v>9.890000000000001</v>
+        <v>9.89</v>
       </c>
       <c r="O139">
         <v>6.95</v>
       </c>
       <c r="P139">
-        <v>20.42</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>165</v>
       </c>
@@ -11679,10 +11734,10 @@
         <v>1435</v>
       </c>
       <c r="M140">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="N140">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="O140">
         <v>9.65</v>
@@ -11691,7 +11746,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>166</v>
       </c>
@@ -11714,7 +11769,7 @@
         <v>995</v>
       </c>
       <c r="H141">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I141">
         <v>1482487.36</v>
@@ -11732,16 +11787,16 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O141">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="P141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>167</v>
       </c>
@@ -11764,7 +11819,7 @@
         <v>996</v>
       </c>
       <c r="H142">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I142">
         <v>1480593.91</v>
@@ -11791,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>168</v>
       </c>
@@ -11814,7 +11869,7 @@
         <v>997</v>
       </c>
       <c r="H143">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I143">
         <v>1476551.07</v>
@@ -11829,19 +11884,19 @@
         <v>359</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N143">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="O143">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>169</v>
       </c>
@@ -11864,7 +11919,7 @@
         <v>998</v>
       </c>
       <c r="H144">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I144">
         <v>1465260.8</v>
@@ -11891,7 +11946,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>170</v>
       </c>
@@ -11914,7 +11969,7 @@
         <v>999</v>
       </c>
       <c r="H145">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I145">
         <v>1463808</v>
@@ -11941,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>171</v>
       </c>
@@ -11964,7 +12019,7 @@
         <v>1000</v>
       </c>
       <c r="H146">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I146">
         <v>1456141.05</v>
@@ -11991,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>173</v>
       </c>
@@ -12014,7 +12069,7 @@
         <v>1001</v>
       </c>
       <c r="H147">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I147">
         <v>1401337.2</v>
@@ -12038,10 +12093,10 @@
         <v>4.46</v>
       </c>
       <c r="P147">
-        <v>8.539999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>176</v>
       </c>
@@ -12079,19 +12134,19 @@
         <v>1435</v>
       </c>
       <c r="M148">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="O148">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="P148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>178</v>
       </c>
@@ -12141,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>180</v>
       </c>
@@ -12179,19 +12234,19 @@
         <v>1435</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="O150">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="P150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>182</v>
       </c>
@@ -12241,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>183</v>
       </c>
@@ -12291,7 +12346,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>184</v>
       </c>
@@ -12329,19 +12384,19 @@
         <v>1435</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N153">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="P153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>185</v>
       </c>
@@ -12391,7 +12446,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>186</v>
       </c>
@@ -12441,7 +12496,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>187</v>
       </c>
@@ -12491,7 +12546,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>188</v>
       </c>
@@ -12529,19 +12584,19 @@
         <v>1437</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N157">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="O157">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="P157">
-        <v>45.14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>189</v>
       </c>
@@ -12591,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>190</v>
       </c>
@@ -12641,7 +12696,7 @@
         <v>12.05</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>191</v>
       </c>
@@ -12667,7 +12722,7 @@
         <v>0.12</v>
       </c>
       <c r="I160">
-        <v>1203719.4</v>
+        <v>1203719.3999999999</v>
       </c>
       <c r="J160">
         <v>15210</v>
@@ -12679,19 +12734,19 @@
         <v>1435</v>
       </c>
       <c r="M160">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N160">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O160">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="P160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>192</v>
       </c>
@@ -12717,7 +12772,7 @@
         <v>0.12</v>
       </c>
       <c r="I161">
-        <v>1203666.59</v>
+        <v>1203666.5900000001</v>
       </c>
       <c r="J161">
         <v>109442</v>
@@ -12729,19 +12784,19 @@
         <v>1437</v>
       </c>
       <c r="M161">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="N161">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O161">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="P161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>193</v>
       </c>
@@ -12779,19 +12834,19 @@
         <v>1435</v>
       </c>
       <c r="M162">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="N162">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="O162">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="P162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>194</v>
       </c>
@@ -12829,19 +12884,19 @@
         <v>1436</v>
       </c>
       <c r="M163">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N163">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="O163">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="P163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>195</v>
       </c>
@@ -12879,19 +12934,19 @@
         <v>1435</v>
       </c>
       <c r="M164">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N164">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O164">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>196</v>
       </c>
@@ -12938,10 +12993,10 @@
         <v>10.43</v>
       </c>
       <c r="P165">
-        <v>34.52</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16">
+        <v>34.520000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>197</v>
       </c>
@@ -12991,7 +13046,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>198</v>
       </c>
@@ -13029,19 +13084,19 @@
         <v>1435</v>
       </c>
       <c r="M167">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N167">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O167">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>199</v>
       </c>
@@ -13085,13 +13140,13 @@
         <v>3.39</v>
       </c>
       <c r="O168">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="P168">
-        <v>18.42</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
+        <v>18.420000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>200</v>
       </c>
@@ -13141,7 +13196,7 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>201</v>
       </c>
@@ -13182,7 +13237,7 @@
         <v>5.24</v>
       </c>
       <c r="N170">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="O170">
         <v>6.56</v>
@@ -13191,7 +13246,7 @@
         <v>20.34</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>202</v>
       </c>
@@ -13241,7 +13296,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>203</v>
       </c>
@@ -13279,7 +13334,7 @@
         <v>1435</v>
       </c>
       <c r="M172">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N172">
         <v>6.43</v>
@@ -13291,7 +13346,7 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>204</v>
       </c>
@@ -13335,13 +13390,13 @@
         <v>6.88</v>
       </c>
       <c r="O173">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="P173">
         <v>27.4</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>205</v>
       </c>
@@ -13367,7 +13422,7 @@
         <v>0.11</v>
       </c>
       <c r="I174">
-        <v>1099740.4</v>
+        <v>1099740.3999999999</v>
       </c>
       <c r="J174">
         <v>21734</v>
@@ -13391,7 +13446,7 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>207</v>
       </c>
@@ -13429,19 +13484,19 @@
         <v>1434</v>
       </c>
       <c r="M175">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N175">
-        <v>0</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O175">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="P175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>208</v>
       </c>
@@ -13467,7 +13522,7 @@
         <v>0.1</v>
       </c>
       <c r="I176">
-        <v>1084989.62</v>
+        <v>1084989.6200000001</v>
       </c>
       <c r="J176">
         <v>4006</v>
@@ -13491,7 +13546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>209</v>
       </c>
@@ -13541,7 +13596,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>210</v>
       </c>
@@ -13591,7 +13646,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>211</v>
       </c>
@@ -13629,7 +13684,7 @@
         <v>1437</v>
       </c>
       <c r="M179">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="N179">
         <v>7.3</v>
@@ -13641,7 +13696,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>212</v>
       </c>
@@ -13667,7 +13722,7 @@
         <v>0.1</v>
       </c>
       <c r="I180">
-        <v>1063197.16</v>
+        <v>1063197.1599999999</v>
       </c>
       <c r="J180">
         <v>4373</v>
@@ -13679,19 +13734,19 @@
         <v>1434</v>
       </c>
       <c r="M180">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="N180">
         <v>7.88</v>
       </c>
       <c r="O180">
-        <v>8.130000000000001</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="P180">
         <v>16.7</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>214</v>
       </c>
@@ -13741,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>215</v>
       </c>
@@ -13767,7 +13822,7 @@
         <v>0.1</v>
       </c>
       <c r="I182">
-        <v>1056174.88</v>
+        <v>1056174.8799999999</v>
       </c>
       <c r="J182">
         <v>533</v>
@@ -13779,19 +13834,19 @@
         <v>1434</v>
       </c>
       <c r="M182">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N182">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O182">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="P182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>216</v>
       </c>
@@ -13841,7 +13896,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>217</v>
       </c>
@@ -13891,7 +13946,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>219</v>
       </c>
@@ -13938,10 +13993,10 @@
         <v>8.9</v>
       </c>
       <c r="P185">
-        <v>20.35</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16">
+        <v>20.350000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>220</v>
       </c>
@@ -13991,7 +14046,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>221</v>
       </c>
@@ -14041,7 +14096,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>224</v>
       </c>
@@ -14085,13 +14140,13 @@
         <v>7.78</v>
       </c>
       <c r="O188">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="P188">
         <v>23.44</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>225</v>
       </c>
@@ -14117,7 +14172,7 @@
         <v>0.09</v>
       </c>
       <c r="I189">
-        <v>980371.0600000001</v>
+        <v>980371.06</v>
       </c>
       <c r="J189">
         <v>64929</v>
@@ -14129,19 +14184,19 @@
         <v>359</v>
       </c>
       <c r="M189">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="N189">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="O189">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="P189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>226</v>
       </c>
@@ -14185,13 +14240,13 @@
         <v>7.02</v>
       </c>
       <c r="O190">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P190">
         <v>13.85</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>227</v>
       </c>
@@ -14232,16 +14287,16 @@
         <v>19.53</v>
       </c>
       <c r="N191">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="O191">
         <v>7.64</v>
       </c>
       <c r="P191">
-        <v>37.38</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16">
+        <v>37.380000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>229</v>
       </c>
@@ -14291,7 +14346,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>230</v>
       </c>
@@ -14341,7 +14396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>231</v>
       </c>
@@ -14379,19 +14434,19 @@
         <v>1435</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="O194">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>232</v>
       </c>
@@ -14441,7 +14496,7 @@
         <v>22.96</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>233</v>
       </c>
@@ -14479,19 +14534,19 @@
         <v>1437</v>
       </c>
       <c r="M196">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N196">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="O196">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>236</v>
       </c>
@@ -14529,19 +14584,19 @@
         <v>1435</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="N197">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="O197">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>237</v>
       </c>
@@ -14591,7 +14646,7 @@
         <v>10.43</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>238</v>
       </c>
@@ -14641,7 +14696,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>239</v>
       </c>
@@ -14679,19 +14734,19 @@
         <v>1435</v>
       </c>
       <c r="M200">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N200">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="O200">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="P200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>241</v>
       </c>
@@ -14729,19 +14784,19 @@
         <v>1436</v>
       </c>
       <c r="M201">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="N201">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O201">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>242</v>
       </c>
@@ -14782,16 +14837,16 @@
         <v>1.19</v>
       </c>
       <c r="N202">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="O202">
-        <v>9.470000000000001</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="P202">
         <v>19.29</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>243</v>
       </c>
@@ -14829,19 +14884,19 @@
         <v>1436</v>
       </c>
       <c r="M203">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N203">
         <v>6.35</v>
       </c>
       <c r="O203">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="P203">
         <v>12.08</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>244</v>
       </c>
@@ -14891,7 +14946,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>245</v>
       </c>
@@ -14929,19 +14984,19 @@
         <v>1435</v>
       </c>
       <c r="M205">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N205">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O205">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>25.53</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>246</v>
       </c>
@@ -14991,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>247</v>
       </c>
@@ -15041,7 +15096,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>248</v>
       </c>
@@ -15067,7 +15122,7 @@
         <v>0.08</v>
       </c>
       <c r="I208">
-        <v>859429.1899999999</v>
+        <v>859429.19</v>
       </c>
       <c r="J208">
         <v>41086</v>
@@ -15091,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>249</v>
       </c>
@@ -15141,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>250</v>
       </c>
@@ -15167,7 +15222,7 @@
         <v>0.08</v>
       </c>
       <c r="I210">
-        <v>848696.0699999999</v>
+        <v>848696.07</v>
       </c>
       <c r="J210">
         <v>90076</v>
@@ -15191,7 +15246,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>251</v>
       </c>
@@ -15217,7 +15272,7 @@
         <v>0.08</v>
       </c>
       <c r="I211">
-        <v>840107.52</v>
+        <v>840107.52000000002</v>
       </c>
       <c r="J211">
         <v>72926</v>
@@ -15241,7 +15296,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>252</v>
       </c>
@@ -15279,7 +15334,7 @@
         <v>1435</v>
       </c>
       <c r="M212">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N212">
         <v>4.13</v>
@@ -15291,7 +15346,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>254</v>
       </c>
@@ -15341,7 +15396,7 @@
         <v>17.21</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>255</v>
       </c>
@@ -15391,7 +15446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>257</v>
       </c>
@@ -15417,7 +15472,7 @@
         <v>0.08</v>
       </c>
       <c r="I215">
-        <v>796116.0600000001</v>
+        <v>796116.06</v>
       </c>
       <c r="J215">
         <v>23736</v>
@@ -15432,7 +15487,7 @@
         <v>0.03</v>
       </c>
       <c r="N215">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="O215">
         <v>3.33</v>
@@ -15441,7 +15496,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>258</v>
       </c>
@@ -15467,7 +15522,7 @@
         <v>0.08</v>
       </c>
       <c r="I216">
-        <v>788058.1800000001</v>
+        <v>788058.18</v>
       </c>
       <c r="J216">
         <v>15834</v>
@@ -15491,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>259</v>
       </c>
@@ -15529,19 +15584,19 @@
         <v>1435</v>
       </c>
       <c r="M217">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N217">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="O217">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>260</v>
       </c>
@@ -15579,7 +15634,7 @@
         <v>1437</v>
       </c>
       <c r="M218">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="N218">
         <v>13.34</v>
@@ -15591,7 +15646,7 @@
         <v>27.41</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>261</v>
       </c>
@@ -15641,7 +15696,7 @@
         <v>21.17</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>262</v>
       </c>
@@ -15664,7 +15719,7 @@
         <v>1074</v>
       </c>
       <c r="H220">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I220">
         <v>760957.85</v>
@@ -15691,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>263</v>
       </c>
@@ -15714,7 +15769,7 @@
         <v>1075</v>
       </c>
       <c r="H221">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I221">
         <v>755579.38</v>
@@ -15741,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>264</v>
       </c>
@@ -15764,7 +15819,7 @@
         <v>1076</v>
       </c>
       <c r="H222">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I222">
         <v>752413.25</v>
@@ -15791,7 +15846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>265</v>
       </c>
@@ -15814,7 +15869,7 @@
         <v>1077</v>
       </c>
       <c r="H223">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I223">
         <v>748636.61</v>
@@ -15841,7 +15896,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>266</v>
       </c>
@@ -15864,7 +15919,7 @@
         <v>1078</v>
       </c>
       <c r="H224">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I224">
         <v>742921.2</v>
@@ -15885,13 +15940,13 @@
         <v>2.36</v>
       </c>
       <c r="O224">
-        <v>4.81</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="P224">
         <v>10.48</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>267</v>
       </c>
@@ -15914,7 +15969,7 @@
         <v>1079</v>
       </c>
       <c r="H225">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I225">
         <v>735654.47</v>
@@ -15941,7 +15996,7 @@
         <v>14.81</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>268</v>
       </c>
@@ -15964,7 +16019,7 @@
         <v>1080</v>
       </c>
       <c r="H226">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I226">
         <v>723931.99</v>
@@ -15991,7 +16046,7 @@
         <v>12.74</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>269</v>
       </c>
@@ -16014,7 +16069,7 @@
         <v>1081</v>
       </c>
       <c r="H227">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I227">
         <v>723185.8</v>
@@ -16041,7 +16096,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>270</v>
       </c>
@@ -16064,7 +16119,7 @@
         <v>1082</v>
       </c>
       <c r="H228">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I228">
         <v>715730.15</v>
@@ -16091,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>271</v>
       </c>
@@ -16114,7 +16169,7 @@
         <v>1083</v>
       </c>
       <c r="H229">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I229">
         <v>711199.6</v>
@@ -16129,19 +16184,19 @@
         <v>1434</v>
       </c>
       <c r="M229">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="N229">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="O229">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>272</v>
       </c>
@@ -16164,7 +16219,7 @@
         <v>1084</v>
       </c>
       <c r="H230">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I230">
         <v>710130.6</v>
@@ -16191,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>274</v>
       </c>
@@ -16214,7 +16269,7 @@
         <v>1085</v>
       </c>
       <c r="H231">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I231">
         <v>698434.8</v>
@@ -16241,7 +16296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>275</v>
       </c>
@@ -16264,7 +16319,7 @@
         <v>1086</v>
       </c>
       <c r="H232">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I232">
         <v>689447.46</v>
@@ -16291,7 +16346,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>276</v>
       </c>
@@ -16314,7 +16369,7 @@
         <v>1087</v>
       </c>
       <c r="H233">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I233">
         <v>681351</v>
@@ -16329,19 +16384,19 @@
         <v>1435</v>
       </c>
       <c r="M233">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N233">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O233">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="P233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>277</v>
       </c>
@@ -16364,7 +16419,7 @@
         <v>1088</v>
       </c>
       <c r="H234">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I234">
         <v>680075.2</v>
@@ -16382,7 +16437,7 @@
         <v>2.23</v>
       </c>
       <c r="N234">
-        <v>9.279999999999999</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="O234">
         <v>5.21</v>
@@ -16391,7 +16446,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>278</v>
       </c>
@@ -16432,7 +16487,7 @@
         <v>1.47</v>
       </c>
       <c r="N235">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="O235">
         <v>4.16</v>
@@ -16441,7 +16496,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>279</v>
       </c>
@@ -16485,13 +16540,13 @@
         <v>12.38</v>
       </c>
       <c r="O236">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="P236">
         <v>27.46</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>280</v>
       </c>
@@ -16517,7 +16572,7 @@
         <v>0.06</v>
       </c>
       <c r="I237">
-        <v>632696.2</v>
+        <v>632696.19999999995</v>
       </c>
       <c r="J237">
         <v>15865</v>
@@ -16541,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>281</v>
       </c>
@@ -16591,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>282</v>
       </c>
@@ -16617,7 +16672,7 @@
         <v>0.06</v>
       </c>
       <c r="I239">
-        <v>620047.05</v>
+        <v>620047.05000000005</v>
       </c>
       <c r="J239">
         <v>16495</v>
@@ -16641,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>284</v>
       </c>
@@ -16691,7 +16746,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>285</v>
       </c>
@@ -16741,7 +16796,7 @@
         <v>28.42</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>286</v>
       </c>
@@ -16767,7 +16822,7 @@
         <v>0.06</v>
       </c>
       <c r="I242">
-        <v>612576.8100000001</v>
+        <v>612576.81000000006</v>
       </c>
       <c r="J242">
         <v>33966</v>
@@ -16779,19 +16834,19 @@
         <v>1435</v>
       </c>
       <c r="M242">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N242">
-        <v>0</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="O242">
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>287</v>
       </c>
@@ -16841,7 +16896,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>288</v>
       </c>
@@ -16891,7 +16946,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>289</v>
       </c>
@@ -16941,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>290</v>
       </c>
@@ -16979,7 +17034,7 @@
         <v>1437</v>
       </c>
       <c r="M246">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N246">
         <v>2.66</v>
@@ -16991,7 +17046,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>291</v>
       </c>
@@ -17038,10 +17093,10 @@
         <v>5.15</v>
       </c>
       <c r="P247">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>292</v>
       </c>
@@ -17091,7 +17146,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>294</v>
       </c>
@@ -17141,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>295</v>
       </c>
@@ -17191,7 +17246,7 @@
         <v>23.65</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>296</v>
       </c>
@@ -17241,7 +17296,7 @@
         <v>21.03</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>297</v>
       </c>
@@ -17291,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>298</v>
       </c>
@@ -17338,10 +17393,10 @@
         <v>4.28</v>
       </c>
       <c r="P253">
-        <v>18.35</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16">
+        <v>18.350000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>302</v>
       </c>
@@ -17367,7 +17422,7 @@
         <v>0.05</v>
       </c>
       <c r="I254">
-        <v>567963.83</v>
+        <v>567963.82999999996</v>
       </c>
       <c r="J254">
         <v>26734</v>
@@ -17391,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>303</v>
       </c>
@@ -17441,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>305</v>
       </c>
@@ -17491,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>306</v>
       </c>
@@ -17541,7 +17596,7 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>307</v>
       </c>
@@ -17567,7 +17622,7 @@
         <v>0.05</v>
       </c>
       <c r="I258">
-        <v>544113.4399999999</v>
+        <v>544113.43999999994</v>
       </c>
       <c r="J258">
         <v>33168</v>
@@ -17591,7 +17646,7 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>308</v>
       </c>
@@ -17641,7 +17696,7 @@
         <v>10.59</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>310</v>
       </c>
@@ -17691,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>311</v>
       </c>
@@ -17741,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>312</v>
       </c>
@@ -17791,7 +17846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>313</v>
       </c>
@@ -17841,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>314</v>
       </c>
@@ -17891,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>315</v>
       </c>
@@ -17941,7 +17996,7 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>316</v>
       </c>
@@ -17991,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>318</v>
       </c>
@@ -18041,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>320</v>
       </c>
@@ -18085,13 +18140,13 @@
         <v>13.28</v>
       </c>
       <c r="O268">
-        <v>8.779999999999999</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="P268">
         <v>30.64</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>321</v>
       </c>
@@ -18141,7 +18196,7 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>322</v>
       </c>
@@ -18191,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>323</v>
       </c>
@@ -18238,10 +18293,10 @@
         <v>4.05</v>
       </c>
       <c r="P271">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>324</v>
       </c>
@@ -18291,7 +18346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>325</v>
       </c>
@@ -18341,7 +18396,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>326</v>
       </c>
@@ -18391,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>331</v>
       </c>
@@ -18438,10 +18493,10 @@
         <v>6.2</v>
       </c>
       <c r="P275">
-        <v>17.08</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16">
+        <v>17.079999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>334</v>
       </c>
@@ -18491,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>336</v>
       </c>
@@ -18541,7 +18596,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>337</v>
       </c>
@@ -18591,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>339</v>
       </c>
@@ -18641,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>340</v>
       </c>
@@ -18691,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>341</v>
       </c>
@@ -18738,10 +18793,10 @@
         <v>6.81</v>
       </c>
       <c r="P281">
-        <v>8.890000000000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>342</v>
       </c>
@@ -18788,10 +18843,10 @@
         <v>5.4</v>
       </c>
       <c r="P282">
-        <v>18.56</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>343</v>
       </c>
@@ -18841,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>344</v>
       </c>
@@ -18891,7 +18946,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>345</v>
       </c>
@@ -18917,7 +18972,7 @@
         <v>0.03</v>
       </c>
       <c r="I285">
-        <v>294200.04</v>
+        <v>294200.03999999998</v>
       </c>
       <c r="J285">
         <v>8860</v>
@@ -18941,7 +18996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>347</v>
       </c>
@@ -18982,7 +19037,7 @@
         <v>4.58</v>
       </c>
       <c r="N286">
-        <v>9.550000000000001</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="O286">
         <v>5.38</v>
@@ -18991,7 +19046,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>348</v>
       </c>
@@ -19041,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>349</v>
       </c>
@@ -19079,19 +19134,19 @@
         <v>1435</v>
       </c>
       <c r="M288">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N288">
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O288">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="P288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>350</v>
       </c>
@@ -19138,10 +19193,10 @@
         <v>6.51</v>
       </c>
       <c r="P289">
-        <v>17.65</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16">
+        <v>17.649999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>352</v>
       </c>
